--- a/data_nilai/nilai_skd.xlsx
+++ b/data_nilai/nilai_skd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAB KENDALI\PRAKTIKUM SKD 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D8427A-5D5C-4A66-B3EA-C6FF2FCC2804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8E691-4495-46A2-874A-D02E22C44755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRAK PENGLIS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
   <si>
     <t>NIM</t>
   </si>
@@ -282,6 +282,24 @@
   </si>
   <si>
     <t>SKD-08</t>
+  </si>
+  <si>
+    <t>jawarainovasi</t>
+  </si>
+  <si>
+    <t>putri</t>
+  </si>
+  <si>
+    <t>hunter123</t>
+  </si>
+  <si>
+    <t>asdfghjkl</t>
+  </si>
+  <si>
+    <t>arya</t>
+  </si>
+  <si>
+    <t>punyanat07</t>
   </si>
 </sst>
 </file>
@@ -542,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,6 +704,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,7 +932,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -1683,8 +1704,8 @@
       <c r="A7" s="40">
         <v>3332210024</v>
       </c>
-      <c r="B7" s="29">
-        <v>6</v>
+      <c r="B7" s="54" t="s">
+        <v>83</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>55</v>
@@ -1808,8 +1829,8 @@
       <c r="A8" s="40">
         <v>3332210051</v>
       </c>
-      <c r="B8" s="28">
-        <v>7</v>
+      <c r="B8" s="54" t="s">
+        <v>85</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>56</v>
@@ -2058,8 +2079,8 @@
       <c r="A10" s="40">
         <v>3332210022</v>
       </c>
-      <c r="B10" s="32">
-        <v>9</v>
+      <c r="B10" s="54" t="s">
+        <v>82</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>58</v>
@@ -2186,8 +2207,8 @@
       <c r="A11" s="37">
         <v>3332210037</v>
       </c>
-      <c r="B11" s="29">
-        <v>10</v>
+      <c r="B11" s="54" t="s">
+        <v>84</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>59</v>
@@ -2442,8 +2463,8 @@
       <c r="A13" s="37">
         <v>3332210003</v>
       </c>
-      <c r="B13" s="32">
-        <v>12</v>
+      <c r="B13" s="54" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>61</v>
@@ -2570,8 +2591,8 @@
       <c r="A14" s="37">
         <v>3332210030</v>
       </c>
-      <c r="B14" s="29">
-        <v>13</v>
+      <c r="B14" s="54" t="s">
+        <v>86</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>62</v>
